--- a/要件定義/要件定義.xlsx
+++ b/要件定義/要件定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workout\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904A761-33C1-4082-922F-86166CA0B610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F22BA95-D980-492D-8371-A32C3A51310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="2" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3081,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464630CC-3631-4310-9436-34D46B9B92DD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
@@ -3098,7 +3098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1880B974-270B-447F-B14B-8668411964A9}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3127,7 +3127,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3152,12 +3152,12 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
@@ -3204,12 +3204,12 @@
       <c r="E8" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
@@ -3239,13 +3239,13 @@
     </row>
     <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="11"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3272,7 +3272,7 @@
     </row>
     <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -3284,7 +3284,7 @@
     </row>
     <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3297,26 +3297,26 @@
     </row>
     <row r="18" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3"/>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="3" t="s">

--- a/要件定義/要件定義.xlsx
+++ b/要件定義/要件定義.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workout\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F22BA95-D980-492D-8371-A32C3A51310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADEF67-EE85-41EA-A5E0-C5ADA2D9472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="2" r:id="rId1"/>
     <sheet name="ER図" sheetId="3" r:id="rId2"/>
-    <sheet name="ER図（詳細）" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="ER図（詳細）" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1"/>
@@ -136,12 +136,27 @@
     <t>VARCHAR(40)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>SMALLINT UNSIGHNED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TINYINT UNSIGHNED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +201,12 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,6 +372,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3098,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1880B974-270B-447F-B14B-8668411964A9}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3124,10 +3151,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB27622-79B2-47B3-A5E8-358FDDCA2C53}">
-  <dimension ref="B2:K20"/>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3136,7 +3163,7 @@
     <col min="2" max="2" width="5.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.9140625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.83203125" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="4" customWidth="1"/>
@@ -3169,8 +3196,8 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+      <c r="E5" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3221,8 +3248,8 @@
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
+      <c r="E11" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3266,9 +3293,7 @@
       <c r="D15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8"/>
@@ -3276,7 +3301,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>19</v>
@@ -3288,7 +3313,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>19</v>
@@ -3298,45 +3323,58 @@
     <row r="18" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8"/>
       <c r="C18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3"/>
-      <c r="C19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/要件定義/要件定義.xlsx
+++ b/要件定義/要件定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workout\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADEF67-EE85-41EA-A5E0-C5ADA2D9472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC178C0F-BE74-4315-B989-A6A57C41F934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="2" r:id="rId1"/>
@@ -2689,25 +2689,81 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51256BF-F7FA-4700-83EB-A016C0B7FFC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1987550" y="904875"/>
+          <a:ext cx="828675" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC58FB83-9581-47CA-A181-7E9112017198}"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E9FF0D-4BB8-455D-9177-4EFA0C049935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,8 +2786,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2838450" y="590550"/>
-          <a:ext cx="1530350" cy="2254250"/>
+          <a:off x="2914650" y="600075"/>
+          <a:ext cx="1533525" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2748,62 +2804,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51256BF-F7FA-4700-83EB-A016C0B7FFC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1987550" y="904875"/>
-          <a:ext cx="828675" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3125,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1880B974-270B-447F-B14B-8668411964A9}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -3153,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB27622-79B2-47B3-A5E8-358FDDCA2C53}">
   <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3162,9 +3162,9 @@
     <col min="1" max="1" width="5.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.83203125" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.83203125" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="4.6640625" style="4" customWidth="1"/>

--- a/要件定義/要件定義.xlsx
+++ b/要件定義/要件定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workout\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC178C0F-BE74-4315-B989-A6A57C41F934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7528DC29-7FD3-41F7-947D-7542716145D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D5209ABD-17E6-49B9-812C-6AE44CCD3F42}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="2" r:id="rId1"/>
@@ -3126,7 +3126,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -3153,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB27622-79B2-47B3-A5E8-358FDDCA2C53}">
   <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C20"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
